--- a/Kloia - QA.xlsx
+++ b/Kloia - QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cnrnyk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F4387-5C97-FE48-88C6-CED39622A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7A3C9-FD81-E341-89A5-084D9A957568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39000" yWindow="21840" windowWidth="34300" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39000" yWindow="500" windowWidth="34300" windowHeight="42700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case study" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
   <si>
     <t xml:space="preserve">TEST PLAN ID	</t>
   </si>
@@ -155,10 +155,6 @@
 3. Ödeme ekranına geçiniz
 4. Kredi Kartı ile taksitsiz puansız ödeme seçeneğini seçiniz.
 5.  Ödemeyi gerçekleştiriniz. </t>
-  </si>
-  <si>
-    <t>4. Kullanıcı kredi kartı taksitsiz seçimi yapabilmelidir.
-5.  Kullanıcı ödemeniz alınmıştır ikazını almalıdır.</t>
   </si>
   <si>
     <t>KLO-BAS02PAY03</t>
@@ -695,6 +691,22 @@
   </si>
   <si>
     <t xml:space="preserve"> + (6 Taksit)</t>
+  </si>
+  <si>
+    <t>4. Kullanıcı kredi kartı taksitsiz puansız ödeme seçimi yapabilmelidir.
+5.  Kullanıcı ödemeniz alınmıştır ikazını almalıdır.</t>
+  </si>
+  <si>
+    <t>4. Kullanıcı kredi kartı taksitsiz tamamı puanlı seçimi yapabilmelidir.
+5.  Kullanıcı ödemeniz alınmıştır ikazını almalıdır.</t>
+  </si>
+  <si>
+    <t>4. Kullanıcı kredi kartı taksitsiz bir kısmı puanlı ödeme seçimi yapabilmelidir.
+5.  Kullanıcı ödemeniz alınmıştır ikazını almalıdır.</t>
+  </si>
+  <si>
+    <t>4. Kullanıcı kredi kartı taksli ödemin bir kısmını puan ile seçimi yapabilmelidir.
+5.  Kullanıcı ödemeniz alınmıştır ikazını almalıdır.</t>
   </si>
 </sst>
 </file>
@@ -973,6 +985,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -982,6 +1000,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,20 +1020,11 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,8 +1432,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="33" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="33" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1438,86 +1450,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="A1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="19"/>
+      <c r="A2" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9" ht="66" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="19"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="22"/>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="23"/>
+      <c r="H3" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="66" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="18"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="66" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="47" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>8</v>
@@ -1650,7 +1662,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
@@ -1658,7 +1670,7 @@
     </row>
     <row r="12" spans="1:9" ht="102">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>27</v>
@@ -1667,13 +1679,13 @@
         <v>22</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
@@ -1681,7 +1693,7 @@
     </row>
     <row r="13" spans="1:9" ht="102">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>27</v>
@@ -1690,13 +1702,13 @@
         <v>22</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -1704,7 +1716,7 @@
     </row>
     <row r="14" spans="1:9" ht="85">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>27</v>
@@ -1713,13 +1725,13 @@
         <v>22</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
@@ -1727,7 +1739,7 @@
     </row>
     <row r="15" spans="1:9" ht="102">
       <c r="A15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>27</v>
@@ -1736,13 +1748,13 @@
         <v>22</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
@@ -1750,19 +1762,19 @@
     </row>
     <row r="16" spans="1:9" ht="85">
       <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>30</v>
@@ -1773,19 +1785,19 @@
     </row>
     <row r="17" spans="1:9" ht="85">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>25</v>
@@ -1796,22 +1808,22 @@
     </row>
     <row r="18" spans="1:9" ht="85">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
@@ -1819,22 +1831,22 @@
     </row>
     <row r="19" spans="1:9" ht="102">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
@@ -1842,22 +1854,22 @@
     </row>
     <row r="20" spans="1:9" ht="102">
       <c r="A20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
@@ -1865,22 +1877,22 @@
     </row>
     <row r="21" spans="1:9" ht="85">
       <c r="A21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
@@ -1888,22 +1900,22 @@
     </row>
     <row r="22" spans="1:9" ht="102">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
@@ -1911,22 +1923,22 @@
     </row>
     <row r="23" spans="1:9" ht="102">
       <c r="A23" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
@@ -1934,22 +1946,22 @@
     </row>
     <row r="24" spans="1:9" ht="102">
       <c r="A24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
@@ -1957,22 +1969,22 @@
     </row>
     <row r="25" spans="1:9" ht="85">
       <c r="A25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
@@ -1980,19 +1992,19 @@
     </row>
     <row r="26" spans="1:9" ht="85">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>25</v>
@@ -2003,22 +2015,22 @@
     </row>
     <row r="27" spans="1:9" ht="85">
       <c r="A27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F27" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
@@ -2026,19 +2038,19 @@
     </row>
     <row r="28" spans="1:9" ht="85">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>25</v>
@@ -2049,22 +2061,22 @@
     </row>
     <row r="29" spans="1:9" ht="85">
       <c r="A29" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="F29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
@@ -2072,19 +2084,19 @@
     </row>
     <row r="30" spans="1:9" ht="85">
       <c r="A30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>25</v>
@@ -2095,22 +2107,22 @@
     </row>
     <row r="31" spans="1:9" ht="153">
       <c r="A31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
@@ -2118,19 +2130,19 @@
     </row>
     <row r="32" spans="1:9" ht="85">
       <c r="A32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>25</v>
@@ -2141,19 +2153,19 @@
     </row>
     <row r="33" spans="1:9" ht="85">
       <c r="A33" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>25</v>
@@ -2164,19 +2176,19 @@
     </row>
     <row r="34" spans="1:9" ht="102">
       <c r="A34" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>25</v>
@@ -2187,19 +2199,19 @@
     </row>
     <row r="35" spans="1:9" ht="102">
       <c r="A35" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>25</v>
@@ -2210,19 +2222,19 @@
     </row>
     <row r="36" spans="1:9" ht="85">
       <c r="A36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>25</v>
@@ -2233,19 +2245,19 @@
     </row>
     <row r="37" spans="1:9" ht="85">
       <c r="A37" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>25</v>
@@ -2256,19 +2268,19 @@
     </row>
     <row r="38" spans="1:9" ht="102">
       <c r="A38" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>130</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>25</v>
@@ -2279,19 +2291,19 @@
     </row>
     <row r="39" spans="1:9" ht="102">
       <c r="A39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>25</v>
@@ -2381,102 +2393,102 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>50</v>
+      <c r="E3" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="29"/>
-      <c r="C4" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>150</v>
+      <c r="C4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>153</v>
+        <v>140</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="13" customFormat="1">
       <c r="A6" s="29"/>
-      <c r="B6" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>154</v>
+      <c r="B6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>152</v>
+      <c r="C7" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B8" s="29"/>
-      <c r="C8" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>152</v>
+      <c r="C8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
